--- a/output.xlsx
+++ b/output.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1967,147 +1967,6 @@
       </c>
       <c r="M32" s="2" t="n">
         <v>45801.65194444444</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>GED7241401011</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>ATTLOG</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>99999</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>45809.3465162037</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="n">
-        <v>45809.11734953704</v>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>45809.11734953704</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>GED7241401011</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>ATTLOG</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>99999</v>
-      </c>
-      <c r="F34" s="2" t="n">
-        <v>45809.34746527778</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="n">
-        <v>45809.11828703704</v>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>45809.11828703704</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>GED7241401011</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ATTLOG</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>99999</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>45809.34792824074</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2" t="n">
-        <v>45809.11875</v>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>45809.11875</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +1980,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,6 +2124,30 @@
       </c>
       <c r="H5" s="2" t="n">
         <v>45809.34644675926</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GED7241401011</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"SN":"GED7241401011","options":"all","language":"69","pushver":"2.4.1"}</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45809.40646990741</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45809.40646990741</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2422,6 +2305,30 @@
       </c>
       <c r="H5" s="2" t="n">
         <v>45809.34644675926</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>GED7241401011</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"SN":"GED7241401011","options":"all","language":"69","pushver":"2.4.1"}</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45809.40646990741</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>45809.40646990741</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2780,35 +2687,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>99999</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>45809</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>45809.3465162037</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45809.34792824074</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>GED7241401011</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>GED7241401011</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0 days 00:02:02</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
